--- a/config_3.9/fish_2d_fish_server.xlsx
+++ b/config_3.9/fish_2d_fish_server.xlsx
@@ -1715,25 +1715,10 @@
     <t>182,</t>
   </si>
   <si>
-    <t>0,0,0.01,</t>
-  </si>
-  <si>
     <t>活动boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0.2,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0.3,0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0.4,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>183,</t>
   </si>
   <si>
@@ -1811,6 +1796,22 @@
   </si>
   <si>
     <t>2,0,0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.66,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,1,1.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,1.33,1.66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.03,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8237,7 +8238,7 @@
         <v>1</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D210" s="27"/>
       <c r="E210" s="27"/>
@@ -8273,7 +8274,7 @@
         <v>1</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D211" s="27"/>
       <c r="E211" s="27"/>
@@ -8309,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D212" s="27"/>
       <c r="E212" s="27"/>
@@ -8345,7 +8346,7 @@
         <v>1</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D213" s="27"/>
       <c r="E213" s="27"/>
@@ -8381,7 +8382,7 @@
         <v>1</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D214" s="27"/>
       <c r="E214" s="27"/>
@@ -8417,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D215" s="27"/>
       <c r="E215" s="27"/>
@@ -8453,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D216" s="27"/>
       <c r="E216" s="27"/>
@@ -8489,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D217" s="27"/>
       <c r="E217" s="27"/>
@@ -8525,7 +8526,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="38" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D218" s="33"/>
       <c r="E218" s="33"/>
@@ -8561,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="38" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D219" s="33"/>
       <c r="E219" s="33"/>
@@ -8597,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="C220" s="38" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D220" s="33"/>
       <c r="E220" s="33"/>
@@ -8633,7 +8634,7 @@
         <v>1</v>
       </c>
       <c r="C221" s="38" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D221" s="33"/>
       <c r="E221" s="33"/>
@@ -8669,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="C222" s="38" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D222" s="33"/>
       <c r="E222" s="33"/>
@@ -8705,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D223" s="33"/>
       <c r="E223" s="33"/>
@@ -8741,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D224" s="33"/>
       <c r="E224" s="33"/>
@@ -8777,7 +8778,7 @@
         <v>1</v>
       </c>
       <c r="C225" s="38" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D225" s="33"/>
       <c r="E225" s="33"/>
@@ -18563,7 +18564,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19756,7 +19757,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="D45" s="18">
         <v>0</v>
@@ -19779,7 +19780,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="D46" s="18">
         <v>0</v>
@@ -19802,7 +19803,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="D47" s="18">
         <v>0</v>
@@ -19825,7 +19826,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="D48" s="18">
         <v>1</v>
@@ -19848,7 +19849,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D49" s="28">
         <v>0</v>
@@ -19871,7 +19872,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D50" s="28">
         <v>0</v>
@@ -19894,7 +19895,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D51" s="28">
         <v>0</v>
@@ -19917,7 +19918,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D52" s="28">
         <v>1</v>
@@ -19940,7 +19941,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D53" s="34">
         <v>0</v>
@@ -19963,7 +19964,7 @@
         <v>9</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D54" s="34">
         <v>0</v>
@@ -19986,7 +19987,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D55" s="34">
         <v>0</v>
@@ -20009,7 +20010,7 @@
         <v>9</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D56" s="34">
         <v>1</v>
@@ -21026,7 +21027,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F36" s="16">
         <v>0</v>
